--- a/Roma_BR/BR05/BR05_studenti.xlsx
+++ b/Roma_BR/BR05/BR05_studenti.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -55,12 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,14 +351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="8" max="8" width="20.7109375" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -649,19 +642,25 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
-        <v>45630.51076390046</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:15:30.001</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>R_8lBFXEwRNYRliTf</t>
         </is>
       </c>
-      <c r="N2">
-        <v>43.1479</v>
-      </c>
-      <c r="O2">
-        <v>12.1097</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -802,19 +801,25 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
-        <v>45630.51117806713</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:16:05.785</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>R_24otPsu8wmfxDUC</t>
         </is>
       </c>
-      <c r="N3">
-        <v>43.1479</v>
-      </c>
-      <c r="O3">
-        <v>12.1097</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -961,19 +966,25 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
-        <v>45630.51145988426</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:16:30.134</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>R_2T6MPh2AMQTf9kt</t>
         </is>
       </c>
-      <c r="N4">
-        <v>43.1479</v>
-      </c>
-      <c r="O4">
-        <v>12.1097</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -1118,19 +1129,25 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
-        <v>45630.51148449074</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:16:32.26</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>R_2plJg8zoMHFOM93</t>
         </is>
       </c>
-      <c r="N5">
-        <v>45.4722</v>
-      </c>
-      <c r="O5">
-        <v>9.1922</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -1280,19 +1297,25 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
-        <v>45630.51244472222</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:17:55.224</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>R_2t4EpWL9CSubT7X</t>
         </is>
       </c>
-      <c r="N6">
-        <v>41.8904</v>
-      </c>
-      <c r="O6">
-        <v>12.5126</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1441,19 +1464,25 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
-        <v>45630.51311547453</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:18:53.177</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>R_2jerrP8omfdZAiu</t>
         </is>
       </c>
-      <c r="N7">
-        <v>43.1479</v>
-      </c>
-      <c r="O7">
-        <v>12.1097</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1608,19 +1637,25 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
-        <v>45630.51341311343</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:19:18.893</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>R_2eabZoGni74j8HE</t>
         </is>
       </c>
-      <c r="N8">
-        <v>41.8904</v>
-      </c>
-      <c r="O8">
-        <v>12.5126</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1769,19 +1804,25 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
-        <v>45630.51371015047</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:19:44.557</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>R_8vljL6cFDON7eqR</t>
         </is>
       </c>
-      <c r="N9">
-        <v>41.8904</v>
-      </c>
-      <c r="O9">
-        <v>12.5126</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1923,19 +1964,25 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="2">
-        <v>45630.5138093287</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:19:53.126</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>R_2tzEDYQuYX3yTFO</t>
         </is>
       </c>
-      <c r="N10">
-        <v>45.4722</v>
-      </c>
-      <c r="O10">
-        <v>9.1922</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -2058,19 +2105,25 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="2">
-        <v>45630.51394578704</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:20:04.916</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>R_8PZSS3ojVEuYUMx</t>
         </is>
       </c>
-      <c r="N11">
-        <v>43.1479</v>
-      </c>
-      <c r="O11">
-        <v>12.1097</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -2220,19 +2273,25 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="2">
-        <v>45630.51472980324</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:21:12.655</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>R_8UXEhhN45ZVkdxi</t>
         </is>
       </c>
-      <c r="N12">
-        <v>41.8904</v>
-      </c>
-      <c r="O12">
-        <v>12.5126</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -2382,19 +2441,25 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
-        <v>45630.51476145833</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:21:15.39</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>R_8q3RfKwZgs3vjxf</t>
         </is>
       </c>
-      <c r="N13">
-        <v>45.4722</v>
-      </c>
-      <c r="O13">
-        <v>9.1922</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -2539,19 +2604,25 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="2">
-        <v>45630.51496614583</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:21:33.075</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>R_8jTzHXTeI9rZP6T</t>
         </is>
       </c>
-      <c r="N14">
-        <v>45.4742</v>
-      </c>
-      <c r="O14">
-        <v>9.199400000000001</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>45.4742</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>9.1994</t>
+        </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -2701,19 +2772,25 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="2">
-        <v>45630.51507189815</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:21:42.212</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>R_2aOfZkbmorLl7Y5</t>
         </is>
       </c>
-      <c r="N15">
-        <v>43.1479</v>
-      </c>
-      <c r="O15">
-        <v>12.1097</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -2860,19 +2937,25 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="2">
-        <v>45630.51591560185</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2024-12-04 12:22:55.108</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>R_2jFFD1yrS3tchtT</t>
         </is>
       </c>
-      <c r="N16">
-        <v>45.4742</v>
-      </c>
-      <c r="O16">
-        <v>9.199400000000001</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>45.4742</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>9.1994</t>
+        </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -2994,6 +3077,303 @@
         <v>1</v>
       </c>
       <c r="AY16" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1733310000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>R_cartaceo_9</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>rispettare l'ambiente</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>3</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>sostenere l'ambiente</t>
+        </is>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>3</v>
+      </c>
+      <c r="AE17">
+        <v>3</v>
+      </c>
+      <c r="AF17">
+        <v>3</v>
+      </c>
+      <c r="AI17">
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>5</v>
+      </c>
+      <c r="AL17">
+        <v>4</v>
+      </c>
+      <c r="AM17">
+        <v>2</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>2</v>
+      </c>
+      <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <v>5</v>
+      </c>
+      <c r="AR17">
+        <v>3</v>
+      </c>
+      <c r="AS17">
+        <v>4</v>
+      </c>
+      <c r="AT17">
+        <v>3</v>
+      </c>
+      <c r="AU17">
+        <v>3</v>
+      </c>
+      <c r="AV17">
+        <v>4</v>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1733310000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>R_cartaceo_10</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
+      </c>
+      <c r="AA18">
+        <v>5</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>in questo esempio la sostenibilità è il benessere ed il cibo di ogni gruppo di mucche</t>
+        </is>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>4</v>
+      </c>
+      <c r="AF18">
+        <v>3</v>
+      </c>
+      <c r="AG18">
+        <v>3</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>5</v>
+      </c>
+      <c r="AJ18">
+        <v>4</v>
+      </c>
+      <c r="AK18">
+        <v>5</v>
+      </c>
+      <c r="AL18">
+        <v>3</v>
+      </c>
+      <c r="AM18">
+        <v>4</v>
+      </c>
+      <c r="AN18">
+        <v>2</v>
+      </c>
+      <c r="AO18">
+        <v>5</v>
+      </c>
+      <c r="AP18">
+        <v>5</v>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="inlineStr">
         <is>
           <t>blu</t>
         </is>
